--- a/Batch Details 8353.xlsx
+++ b/Batch Details 8353.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>First Name</t>
   </si>
@@ -697,7 +697,9 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -763,7 +765,9 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
